--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="412">
   <si>
     <t>국어국문</t>
   </si>
@@ -1304,6 +1304,10 @@
   </si>
   <si>
     <t>학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독고예준</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1647,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1696,7 +1700,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1717,7 +1721,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1738,7 +1742,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1759,7 +1763,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1780,7 +1784,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1822,7 +1826,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -1843,7 +1847,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1864,7 +1868,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1885,7 +1889,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1927,7 +1931,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -1990,7 +1994,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2011,7 +2015,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2032,7 +2036,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2043,7 +2047,7 @@
         <v>336</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>411</v>
       </c>
       <c r="C19" t="s">
         <v>334</v>
@@ -2053,7 +2057,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2074,7 +2078,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2095,7 +2099,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2137,7 +2141,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2158,7 +2162,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2179,7 +2183,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2200,7 +2204,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2242,7 +2246,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2263,7 +2267,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -2284,7 +2288,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2305,7 +2309,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2326,7 +2330,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2347,7 +2351,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2368,7 +2372,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2389,7 +2393,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2410,7 +2414,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2431,7 +2435,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2452,7 +2456,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2494,7 +2498,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2515,7 +2519,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2536,7 +2540,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2599,7 +2603,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2620,7 +2624,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2683,7 +2687,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -2725,7 +2729,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2746,7 +2750,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -2767,7 +2771,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2788,7 +2792,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -2851,7 +2855,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -2872,7 +2876,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -2893,7 +2897,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -2935,7 +2939,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -2956,7 +2960,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -2977,7 +2981,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -2998,7 +3002,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3019,7 +3023,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3040,7 +3044,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3061,7 +3065,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3082,7 +3086,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3103,7 +3107,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3124,7 +3128,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3145,7 +3149,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3166,7 +3170,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3187,7 +3191,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -3229,7 +3233,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3250,7 +3254,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3271,7 +3275,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3292,7 +3296,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3313,7 +3317,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3334,7 +3338,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3355,7 +3359,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3397,7 +3401,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3418,7 +3422,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3460,7 +3464,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3502,7 +3506,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -3544,7 +3548,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -3565,7 +3569,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3586,7 +3590,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -3607,7 +3611,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3628,7 +3632,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3649,7 +3653,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3670,7 +3674,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3691,7 +3695,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -3754,7 +3758,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -3775,7 +3779,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3792,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3835,14 +3839,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-7325-0978</v>
+        <v>010-1522-0856</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3857,14 +3861,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-9559-5390</v>
+        <v>010-8676-1469</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3879,7 +3883,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3925-7404</v>
+        <v>010-5756-3182</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
@@ -3901,14 +3905,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1801-6044</v>
+        <v>010-0598-5602</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -3923,14 +3927,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4291-1996</v>
+        <v>010-6303-5635</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -3945,14 +3949,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2321-8298</v>
+        <v>010-2486-0885</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -3967,7 +3971,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0678-8887</v>
+        <v>010-1096-8798</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
@@ -3989,14 +3993,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3006-1643</v>
+        <v>010-7397-1689</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4011,14 +4015,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1226-8882</v>
+        <v>010-0853-2264</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4033,14 +4037,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9230-5206</v>
+        <v>010-7768-3851</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4055,7 +4059,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5947-7277</v>
+        <v>010-1794-5752</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
@@ -4077,7 +4081,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3787-0125</v>
+        <v>010-5888-5107</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
@@ -4099,14 +4103,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4835-9901</v>
+        <v>010-0485-4405</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4121,7 +4125,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2447-4573</v>
+        <v>010-1952-1124</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
@@ -4143,14 +4147,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3670-6896</v>
+        <v>010-6973-0535</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4165,14 +4169,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0468-7434</v>
+        <v>010-8102-3770</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4187,14 +4191,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8927-5892</v>
+        <v>010-1817-8892</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4209,7 +4213,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9971-6566</v>
+        <v>010-4348-4163</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
@@ -4231,7 +4235,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1221-7471</v>
+        <v>010-8183-7681</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
@@ -4253,7 +4257,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7368-8735</v>
+        <v>010-0977-7279</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
@@ -4275,14 +4279,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5050-5035</v>
+        <v>010-2110-6231</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4297,14 +4301,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8108-2257</v>
+        <v>010-4676-3106</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4319,7 +4323,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4367-7217</v>
+        <v>010-3431-4117</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
@@ -4341,14 +4345,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7590-5438</v>
+        <v>010-0767-4338</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4363,14 +4367,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1111-1946</v>
+        <v>010-0093-7802</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4385,14 +4389,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4338-9406</v>
+        <v>010-9504-0100</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4407,14 +4411,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7013-1030</v>
+        <v>010-1174-1322</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4429,14 +4433,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6028-0532</v>
+        <v>010-8800-5422</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4451,14 +4455,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7056-7452</v>
+        <v>010-6038-7550</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4473,14 +4477,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3856-0921</v>
+        <v>010-0640-3194</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4495,7 +4499,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6424-8168</v>
+        <v>010-0750-1765</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
@@ -4517,14 +4521,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3229-9771</v>
+        <v>010-3608-5674</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4539,14 +4543,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8574-1451</v>
+        <v>010-1192-2111</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -4561,14 +4565,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5147-5464</v>
+        <v>010-9347-2790</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -4583,14 +4587,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6844-7773</v>
+        <v>010-8963-4104</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4605,14 +4609,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6353-6263</v>
+        <v>010-3841-2646</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4627,14 +4631,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9612-1939</v>
+        <v>010-4499-0430</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -4649,7 +4653,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1157-8345</v>
+        <v>010-1579-7368</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
@@ -4671,14 +4675,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1210-4794</v>
+        <v>010-8397-9163</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4693,7 +4697,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8520-5666</v>
+        <v>010-6914-6593</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
@@ -4715,14 +4719,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5900-3316</v>
+        <v>010-6068-6527</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4737,14 +4741,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6590-8073</v>
+        <v>010-9169-5079</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4759,7 +4763,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4276-7652</v>
+        <v>010-2829-7729</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
@@ -4781,7 +4785,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5608-9020</v>
+        <v>010-3603-9895</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
@@ -4803,14 +4807,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1115-6663</v>
+        <v>010-3609-3417</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4825,14 +4829,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7645-4840</v>
+        <v>010-9784-4382</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4847,7 +4851,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8768-7659</v>
+        <v>010-5112-2585</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
@@ -4869,7 +4873,7 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1598-9155</v>
+        <v>010-2009-4326</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
@@ -4891,14 +4895,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5523-6323</v>
+        <v>010-4507-2082</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4913,14 +4917,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4456-7943</v>
+        <v>010-5175-8729</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4935,7 +4939,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2759-5632</v>
+        <v>010-8512-6390</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
@@ -4957,14 +4961,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5695-6317</v>
+        <v>010-4474-6844</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -4979,14 +4983,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1304-2824</v>
+        <v>010-2692-6392</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5001,7 +5005,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7020-8786</v>
+        <v>010-9723-4351</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
@@ -5023,14 +5027,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4819-2910</v>
+        <v>010-4407-8483</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5045,14 +5049,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9533-3490</v>
+        <v>010-4810-7947</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5067,14 +5071,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3845-0122</v>
+        <v>010-1250-1755</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5089,14 +5093,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8105-1834</v>
+        <v>010-0110-6652</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5111,7 +5115,7 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6295-9445</v>
+        <v>010-3822-4450</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
@@ -5133,14 +5137,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0587-1154</v>
+        <v>010-3127-4305</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5155,14 +5159,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4946-7401</v>
+        <v>010-6964-5848</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5177,7 +5181,7 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4552-1220</v>
+        <v>010-7246-7173</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -5199,7 +5203,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5261-9263</v>
+        <v>010-5406-4772</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
@@ -5221,14 +5225,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4971-1284</v>
+        <v>010-7195-0897</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5243,14 +5247,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3391-5762</v>
+        <v>010-3369-9992</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5265,14 +5269,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-5672-3088</v>
+        <v>010-9253-5212</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5287,14 +5291,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9041-5776</v>
+        <v>010-8360-8227</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5309,14 +5313,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3347-4451</v>
+        <v>010-4814-2429</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5331,14 +5335,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5308-1543</v>
+        <v>010-3515-9996</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5353,7 +5357,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5021-2972</v>
+        <v>010-6980-2292</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -5375,14 +5379,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3626-0614</v>
+        <v>010-1139-2176</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5397,14 +5401,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7972-5938</v>
+        <v>010-3680-4174</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5419,14 +5423,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6886-9658</v>
+        <v>010-7298-1818</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5441,14 +5445,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2227-6176</v>
+        <v>010-1139-4326</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5463,7 +5467,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1726-6195</v>
+        <v>010-7455-6326</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
@@ -5485,14 +5489,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3487-7391</v>
+        <v>010-6223-0107</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5507,14 +5511,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5654-5962</v>
+        <v>010-3403-1425</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5529,7 +5533,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9283-2836</v>
+        <v>010-9619-8320</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
@@ -5551,14 +5555,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2044-2096</v>
+        <v>010-6437-8600</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5573,7 +5577,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7700-2477</v>
+        <v>010-9640-3743</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
@@ -5595,14 +5599,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3818-2298</v>
+        <v>010-0644-8793</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5617,14 +5621,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8889-2822</v>
+        <v>010-3234-2134</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5639,7 +5643,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4014-2980</v>
+        <v>010-7360-5938</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
@@ -5661,14 +5665,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6089-7747</v>
+        <v>010-0349-1306</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -5683,14 +5687,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7417-9363</v>
+        <v>010-1205-2867</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5705,14 +5709,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2953-5225</v>
+        <v>010-6716-2433</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5727,14 +5731,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0811-4649</v>
+        <v>010-6882-2542</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -5749,14 +5753,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1628-6716</v>
+        <v>010-0925-4791</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5771,7 +5775,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5659-8317</v>
+        <v>010-1872-2889</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
@@ -5793,14 +5797,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5334-7621</v>
+        <v>010-7508-3619</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5815,14 +5819,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8103-6143</v>
+        <v>010-3180-2345</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5837,14 +5841,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7854-0440</v>
+        <v>010-8558-4547</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5859,7 +5863,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0309-2396</v>
+        <v>010-2626-4617</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
@@ -5881,7 +5885,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7867-1102</v>
+        <v>010-6314-6194</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
@@ -5903,14 +5907,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5432-1630</v>
+        <v>010-2026-4906</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -5925,14 +5929,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5790-8431</v>
+        <v>010-2511-4086</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -5947,14 +5951,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1649-5378</v>
+        <v>010-4217-6720</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -5969,14 +5973,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6778-7793</v>
+        <v>010-4892-6143</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -5991,14 +5995,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1316-3683</v>
+        <v>010-4525-4146</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6013,14 +6017,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1274-9993</v>
+        <v>010-0414-6414</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6037,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:B44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
